--- a/biology/Médecine/Acide-phénol/Acide-phénol.xlsx
+++ b/biology/Médecine/Acide-phénol/Acide-phénol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide-ph%C3%A9nol</t>
+          <t>Acide-phénol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un  acide-phénol (ou acide phénolique) est un composé organique possédant au moins une fonction carboxylique et un hydroxyle phénolique.
 La pratique courante en phytochimie consiste à réserver ce terme aux dérivés de l’acide benzoïque et de l’acide cinnamique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide-ph%C3%A9nol</t>
+          <t>Acide-phénol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Acides phénoliques dérivés de l'acide benzoïque: acides hydroxybenzoïques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acides hydroxybenzoïques dérivent par hydroxylation de l’acide benzoïque avec une structure de base de type C6-C1. Ces hydroxyles phénoliques OH peuvent ensuite être méthylés.
 Exemples : 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide-ph%C3%A9nol</t>
+          <t>Acide-phénol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Acides phénoliques dérivés de l'acide cinnamique : acides hydroxycinnamiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les dérivés de l'acide cinnamique, les acides hydroxycinnamiques ont une structure de base de type C6-C3. Ils appartiennent à la grande famille des phénylpropanoïdes. Les hydroxyles phénoliques OH de ces dérivés peuvent aussi être méthylés (-O-CH3).
 Exemples :
